--- a/data/trans_orig/P1438_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>47768</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37302</v>
+        <v>36666</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62264</v>
+        <v>62006</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06915781413086775</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05400500284501276</v>
+        <v>0.05308494347942966</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09014477992937275</v>
+        <v>0.08977152617324095</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>175</v>
@@ -762,19 +762,19 @@
         <v>77372</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66988</v>
+        <v>66786</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89420</v>
+        <v>89087</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1055959345699643</v>
+        <v>0.1055959345699642</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09142313222034884</v>
+        <v>0.09114753402960131</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1220375992742214</v>
+        <v>0.1215829635317915</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>243</v>
@@ -783,19 +783,19 @@
         <v>125140</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>109943</v>
+        <v>109268</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>143792</v>
+        <v>141876</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08791460570420864</v>
+        <v>0.08791460570420867</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07723794003356067</v>
+        <v>0.07676354803191553</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1010181756706595</v>
+        <v>0.09967156442777918</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>642942</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>628446</v>
+        <v>628704</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>653408</v>
+        <v>654044</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9308421858691324</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9098552200706272</v>
+        <v>0.9102284738267588</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9459949971549869</v>
+        <v>0.9469150565205703</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1063</v>
@@ -833,19 +833,19 @@
         <v>655350</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>643302</v>
+        <v>643635</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>665734</v>
+        <v>665936</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8944040654300358</v>
+        <v>0.8944040654300356</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8779624007257787</v>
+        <v>0.8784170364682083</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9085768677796511</v>
+        <v>0.9088524659703986</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1725</v>
@@ -854,19 +854,19 @@
         <v>1298291</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1279639</v>
+        <v>1281555</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1313488</v>
+        <v>1314163</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9120853942957913</v>
+        <v>0.9120853942957914</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8989818243293405</v>
+        <v>0.9003284355722209</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9227620599664395</v>
+        <v>0.9232364519680841</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>47817</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36137</v>
+        <v>36098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63036</v>
+        <v>61265</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04558724899654654</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03445156757157199</v>
+        <v>0.03441460552811981</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06009607439070864</v>
+        <v>0.05840832223147625</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>156</v>
@@ -979,19 +979,19 @@
         <v>91859</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>78995</v>
+        <v>78452</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107117</v>
+        <v>107667</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08583455685241426</v>
+        <v>0.08583455685241427</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07381377429692967</v>
+        <v>0.07330724723973932</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1000922547970007</v>
+        <v>0.100605332093969</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>217</v>
@@ -1000,19 +1000,19 @@
         <v>139676</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>121011</v>
+        <v>120992</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>160204</v>
+        <v>160717</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06591288742784845</v>
+        <v>0.06591288742784847</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05710491894877571</v>
+        <v>0.05709579950103023</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07560008395219416</v>
+        <v>0.07584198488784265</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1001100</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>985881</v>
+        <v>987652</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1012780</v>
+        <v>1012819</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9544127510034535</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9399039256092913</v>
+        <v>0.9415916777685241</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9655484324284279</v>
+        <v>0.9655853944718801</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1359</v>
@@ -1050,19 +1050,19 @@
         <v>978328</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>963070</v>
+        <v>962520</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>991192</v>
+        <v>991735</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.914165443147586</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8999077452029993</v>
+        <v>0.8993946679060308</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9261862257030701</v>
+        <v>0.9266927527602604</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2262</v>
@@ -1071,19 +1071,19 @@
         <v>1979428</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1958900</v>
+        <v>1958387</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1998093</v>
+        <v>1998112</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9340871125721516</v>
+        <v>0.9340871125721517</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9243999160478058</v>
+        <v>0.9241580151121579</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9428950810512243</v>
+        <v>0.9429042004989701</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>26030</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17863</v>
+        <v>17674</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38378</v>
+        <v>38713</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03256445706413127</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02234702677536428</v>
+        <v>0.02211021203356356</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04801161083156979</v>
+        <v>0.04843056320949533</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -1196,19 +1196,19 @@
         <v>61318</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49433</v>
+        <v>49499</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74288</v>
+        <v>75058</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07561651449669572</v>
+        <v>0.07561651449669574</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06096024188290643</v>
+        <v>0.06104125411209767</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09161128352864617</v>
+        <v>0.09256031341736448</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>115</v>
@@ -1217,19 +1217,19 @@
         <v>87348</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72830</v>
+        <v>71908</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104302</v>
+        <v>104527</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05424501353509716</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04522914090300179</v>
+        <v>0.04465631117150435</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06477383529398735</v>
+        <v>0.06491337655152561</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>773318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>760970</v>
+        <v>760635</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>781485</v>
+        <v>781674</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9674355429358688</v>
+        <v>0.9674355429358686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9519883891684303</v>
+        <v>0.9515694367905047</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9776529732246357</v>
+        <v>0.9778897879664364</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>955</v>
@@ -1267,19 +1267,19 @@
         <v>749589</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>736619</v>
+        <v>735849</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>761474</v>
+        <v>761408</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9243834855033044</v>
+        <v>0.9243834855033043</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9083887164713537</v>
+        <v>0.9074396865826355</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9390397581170934</v>
+        <v>0.9389587458879022</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1602</v>
@@ -1288,19 +1288,19 @@
         <v>1522907</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1505953</v>
+        <v>1505728</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1537425</v>
+        <v>1538347</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.945754986464903</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9352261647060125</v>
+        <v>0.9350866234484742</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.954770859096998</v>
+        <v>0.9553436888284949</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>42113</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31819</v>
+        <v>31185</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54232</v>
+        <v>54106</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04253621571360203</v>
+        <v>0.04253621571360204</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03213790901979943</v>
+        <v>0.031497891687728</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05477653730318331</v>
+        <v>0.0546490221424762</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -1413,19 +1413,19 @@
         <v>87785</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>73665</v>
+        <v>73511</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101758</v>
+        <v>103482</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07854519862152064</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06591195473247387</v>
+        <v>0.06577334465169302</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09104803514599921</v>
+        <v>0.09259048726758995</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>196</v>
@@ -1434,19 +1434,19 @@
         <v>129898</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111752</v>
+        <v>112673</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>148704</v>
+        <v>148363</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06163045681676228</v>
+        <v>0.06163045681676229</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05302078038398805</v>
+        <v>0.0534577017362324</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0705528579892598</v>
+        <v>0.07039124767122001</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>947949</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>935830</v>
+        <v>935956</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>958243</v>
+        <v>958877</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9574637842863979</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9452234626968166</v>
+        <v>0.9453509778575239</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9678620909802005</v>
+        <v>0.9685021083122721</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1418</v>
@@ -1484,19 +1484,19 @@
         <v>1029849</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1015876</v>
+        <v>1014152</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1043969</v>
+        <v>1044123</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9214548013784795</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.908951964854001</v>
+        <v>0.9074095127324101</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.934088045267526</v>
+        <v>0.9342266553483065</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2370</v>
@@ -1505,19 +1505,19 @@
         <v>1977798</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1958992</v>
+        <v>1959333</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1995944</v>
+        <v>1995023</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9383695431832377</v>
+        <v>0.9383695431832378</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9294471420107403</v>
+        <v>0.9296087523287795</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9469792196160119</v>
+        <v>0.9465422982637675</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>163729</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>142941</v>
+        <v>142306</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>187397</v>
+        <v>188850</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04639482372672283</v>
+        <v>0.04639482372672282</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.040504373267947</v>
+        <v>0.04032425447296011</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05310143996937209</v>
+        <v>0.05351329065679152</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>563</v>
@@ -1630,19 +1630,19 @@
         <v>318334</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>288679</v>
+        <v>291763</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>344456</v>
+        <v>346731</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08531113403839566</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07736388730294527</v>
+        <v>0.07819012130050507</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09231159527093333</v>
+        <v>0.09292130700815769</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>771</v>
@@ -1651,19 +1651,19 @@
         <v>482063</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>448994</v>
+        <v>447748</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>518839</v>
+        <v>517036</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06639544731081035</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06184074404569259</v>
+        <v>0.06166918221837801</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07146067979480912</v>
+        <v>0.0712123005197273</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3365308</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3341640</v>
+        <v>3340187</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3386096</v>
+        <v>3386731</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9536051762732772</v>
+        <v>0.953605176273277</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9468985600306278</v>
+        <v>0.9464867093432084</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9594956267320527</v>
+        <v>0.9596757455270402</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4795</v>
@@ -1701,19 +1701,19 @@
         <v>3413116</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3386994</v>
+        <v>3384719</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3442771</v>
+        <v>3439687</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9146888659616045</v>
+        <v>0.9146888659616044</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.907688404729067</v>
+        <v>0.9070786929918424</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9226361126970547</v>
+        <v>0.921809878699495</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7959</v>
@@ -1722,19 +1722,19 @@
         <v>6778424</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6741648</v>
+        <v>6743451</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6811493</v>
+        <v>6812739</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9336045526891896</v>
+        <v>0.9336045526891897</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9285393202051911</v>
+        <v>0.9287876994802733</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9381592559543073</v>
+        <v>0.9383308177816225</v>
       </c>
     </row>
     <row r="18">
